--- a/ExecutionController/ExecutionController.xlsx
+++ b/ExecutionController/ExecutionController.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\API_V2.0_NativeAPI_27-02-2018\APIv2.0_MU3\ExecutionController\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForPractice\API_V2.0_NativeAPI_27-02-2018\APIv2.0_MU3\ExecutionController\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="695">
   <si>
     <t>ProjectName</t>
   </si>
@@ -2136,8 +2136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="142" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2797,6 +2796,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2827,6 +2850,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2869,12 +2904,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2919,80 +2948,34 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
     </font>
   </fonts>
-  <fills count="148">
+  <fills count="142">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3695,36 +3678,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
         <fgColor indexed="44"/>
       </patternFill>
     </fill>
@@ -3826,7 +3779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4018,9 +3971,6 @@
     <xf numFmtId="0" fontId="136" fillId="139" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="137" fillId="140" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="138" fillId="141" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="139" fillId="143" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="140" fillId="145" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="141" fillId="147" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4315,8 +4265,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.625" collapsed="true"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4359,15 +4309,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="15.625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="55.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="28.125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="9.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="15.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="8.625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="10.625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="83.125" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="10.625" collapsed="true"/>
+    <col min="1" max="1" width="15.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="83.125" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="10.625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5408,21 +5358,21 @@
   <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:H272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="15.625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="55.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="30.625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="9.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="15.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="21.625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="13.125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="126.625" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="10.625" collapsed="true"/>
+    <col min="1" max="1" width="15.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="126.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="10.625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -6188,7 +6138,7 @@
         <v>134</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E37" s="123" t="s">
         <v>109</v>
@@ -6212,9 +6162,9 @@
         <v>134</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="131" t="s">
         <v>109</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -6234,9 +6184,9 @@
         <v>134</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="135" t="s">
         <v>109</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -6256,9 +6206,9 @@
         <v>134</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="154" t="s">
         <v>109</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -6280,7 +6230,7 @@
       <c r="D41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="156" t="s">
+      <c r="E41" s="155" t="s">
         <v>109</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -6324,7 +6274,7 @@
       <c r="D43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="134" t="s">
+      <c r="E43" s="133" t="s">
         <v>109</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -6346,7 +6296,7 @@
       <c r="D44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="146" t="s">
+      <c r="E44" s="145" t="s">
         <v>109</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -6368,7 +6318,7 @@
       <c r="D45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E45" t="s" s="163">
+      <c r="E45" s="160" t="s">
         <v>109</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -6436,7 +6386,7 @@
       <c r="D48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="131" t="s">
+      <c r="E48" s="130" t="s">
         <v>109</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -6482,7 +6432,7 @@
       <c r="D50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="153" t="s">
+      <c r="E50" s="152" t="s">
         <v>109</v>
       </c>
       <c r="F50" s="4" t="s">
@@ -6574,7 +6524,7 @@
       <c r="D54" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="143" t="s">
+      <c r="E54" s="142" t="s">
         <v>109</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -6596,7 +6546,7 @@
       <c r="D55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E55" s="135" t="s">
+      <c r="E55" s="134" t="s">
         <v>110</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -6664,7 +6614,7 @@
       <c r="D58" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="142" t="s">
+      <c r="E58" s="141" t="s">
         <v>110</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -6688,7 +6638,7 @@
       <c r="D59" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="144" t="s">
+      <c r="E59" s="143" t="s">
         <v>109</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -6710,7 +6660,7 @@
       <c r="D60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E60" s="160" t="s">
+      <c r="E60" s="159" t="s">
         <v>109</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -6754,7 +6704,7 @@
       <c r="D62" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E62" s="133" t="s">
+      <c r="E62" s="132" t="s">
         <v>109</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -6944,7 +6894,7 @@
       <c r="D71" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="138" t="s">
+      <c r="E71" s="137" t="s">
         <v>109</v>
       </c>
       <c r="F71" s="4" t="s">
@@ -6966,7 +6916,7 @@
       <c r="D72" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="158" t="s">
+      <c r="E72" s="157" t="s">
         <v>109</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -7108,7 +7058,7 @@
       <c r="D79" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="141" t="s">
+      <c r="E79" s="140" t="s">
         <v>109</v>
       </c>
       <c r="F79" s="4" t="s">
@@ -7130,7 +7080,7 @@
       <c r="D80" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E80" s="139" t="s">
+      <c r="E80" s="138" t="s">
         <v>109</v>
       </c>
       <c r="F80" s="4" t="s">
@@ -8560,7 +8510,7 @@
       <c r="D149" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E149" s="154" t="s">
+      <c r="E149" s="153" t="s">
         <v>109</v>
       </c>
       <c r="F149" s="4" t="s">
@@ -8582,7 +8532,7 @@
       <c r="D150" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E150" s="159" t="s">
+      <c r="E150" s="158" t="s">
         <v>109</v>
       </c>
       <c r="F150" s="4" t="s">
@@ -8604,7 +8554,7 @@
       <c r="D151" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E151" s="157" t="s">
+      <c r="E151" s="156" t="s">
         <v>109</v>
       </c>
       <c r="F151" s="4" t="s">
@@ -8812,7 +8762,7 @@
       <c r="D161" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E161" s="150" t="s">
+      <c r="E161" s="149" t="s">
         <v>109</v>
       </c>
       <c r="F161" s="4" t="s">
@@ -8970,7 +8920,7 @@
       <c r="D168" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E168" s="152" t="s">
+      <c r="E168" s="151" t="s">
         <v>109</v>
       </c>
       <c r="F168" s="4" t="s">
@@ -9236,7 +9186,7 @@
       <c r="D181" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E181" s="137" t="s">
+      <c r="E181" s="136" t="s">
         <v>109</v>
       </c>
       <c r="F181" s="4" t="s">
@@ -9258,7 +9208,7 @@
       <c r="D182" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E182" s="145" t="s">
+      <c r="E182" s="144" t="s">
         <v>109</v>
       </c>
       <c r="F182" s="4" t="s">
@@ -9280,7 +9230,7 @@
       <c r="D183" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E183" s="149" t="s">
+      <c r="E183" s="148" t="s">
         <v>109</v>
       </c>
       <c r="F183" s="4" t="s">
@@ -9678,7 +9628,7 @@
       <c r="D201" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E201" s="140" t="s">
+      <c r="E201" s="139" t="s">
         <v>109</v>
       </c>
       <c r="F201" s="4" t="s">
@@ -10008,7 +9958,7 @@
       <c r="D217" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E217" s="148" t="s">
+      <c r="E217" s="147" t="s">
         <v>109</v>
       </c>
       <c r="F217" s="2" t="s">
@@ -10028,7 +9978,7 @@
       <c r="D218" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E218" s="147" t="s">
+      <c r="E218" s="146" t="s">
         <v>109</v>
       </c>
       <c r="F218" s="2" t="s">
@@ -10614,7 +10564,7 @@
       <c r="D248" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E248" s="151" t="s">
+      <c r="E248" s="150" t="s">
         <v>109</v>
       </c>
       <c r="F248" s="2" t="s">

--- a/ExecutionController/ExecutionController.xlsx
+++ b/ExecutionController/ExecutionController.xlsx
@@ -6206,7 +6206,7 @@
         <v>134</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E40" s="154" t="s">
         <v>109</v>

--- a/ExecutionController/ExecutionController.xlsx
+++ b/ExecutionController/ExecutionController.xlsx
@@ -5359,7 +5359,7 @@
   <dimension ref="A1:H272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6340,7 +6340,7 @@
         <v>134</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E46" s="129" t="s">
         <v>109</v>

--- a/ExecutionController/ExecutionController.xlsx
+++ b/ExecutionController/ExecutionController.xlsx
@@ -6340,7 +6340,7 @@
         <v>134</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E46" s="129" t="s">
         <v>109</v>

--- a/ExecutionController/ExecutionController.xlsx
+++ b/ExecutionController/ExecutionController.xlsx
@@ -6340,7 +6340,7 @@
         <v>134</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E46" s="129" t="s">
         <v>109</v>
